--- a/medicine/Premiers secours et secourisme/Liste_de_catastrophes_en_Belgique/Liste_de_catastrophes_en_Belgique.xlsx
+++ b/medicine/Premiers secours et secourisme/Liste_de_catastrophes_en_Belgique/Liste_de_catastrophes_en_Belgique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente, de manière non exhaustive, une liste des principales catastrophes survenues en Belgique ou ayant affecté le Royaume de manière notable.
 </t>
@@ -513,15 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avant 1830
-Cette partie comprend les catastrophes survenues avant la création officielle du Royaume de Belgique tel qu'il existe aujourd'hui.
-De 1830 à 1914
-Cette partie s'étend de la naissance de la Belgique jusqu'à la Première Guerre mondiale, non-incluse.
-De 1914 à 1945
-Cette partie comprend la Première Guerre mondiale, l'entre-deux guerres et la Seconde Guerre mondiale.
-Parmi ces catastrophes se trouvent, donc, bon nombre de catastrophes en temps de guerre.
-de 1946 à nos jours
-Cette partie s'étend de la fin de la Seconde Guerre mondiale jusqu'à nos jours.
+          <t>Avant 1830</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette partie comprend les catastrophes survenues avant la création officielle du Royaume de Belgique tel qu'il existe aujourd'hui.
 </t>
         </is>
       </c>
@@ -547,10 +557,124 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Catastrophes survenues sur le territoire belge</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>De 1830 à 1914</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette partie s'étend de la naissance de la Belgique jusqu'à la Première Guerre mondiale, non-incluse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_catastrophes_en_Belgique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catastrophes_en_Belgique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Catastrophes survenues sur le territoire belge</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>De 1914 à 1945</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette partie comprend la Première Guerre mondiale, l'entre-deux guerres et la Seconde Guerre mondiale.
+Parmi ces catastrophes se trouvent, donc, bon nombre de catastrophes en temps de guerre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_catastrophes_en_Belgique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catastrophes_en_Belgique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Catastrophes survenues sur le territoire belge</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>de 1946 à nos jours</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette partie s'étend de la fin de la Seconde Guerre mondiale jusqu'à nos jours.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_catastrophes_en_Belgique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catastrophes_en_Belgique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Catastrophes survenues hors du territoire national</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette partie reprend les catastrophes survenues hors du territoire belge mais ayant affecté la Belgique ou un bon nombre de Belges de manière notoire.
 </t>
